--- a/VodovozReports/Reports/Orders/FastDeliveryAvailabilityHistoryReport.xlsx
+++ b/VodovozReports/Reports/Orders/FastDeliveryAvailabilityHistoryReport.xlsx
@@ -92,7 +92,7 @@
     <t xml:space="preserve">{{item.LogisticianComment}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{item.Logistician}}</t>
+    <t xml:space="preserve">{{item.LogisticianNameWithInitials}}</t>
   </si>
   <si>
     <t xml:space="preserve">{{item.LogisticianCommentVersionString}}</t>
@@ -265,8 +265,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -282,7 +282,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="32.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="13" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="14.82"/>
   </cols>

--- a/VodovozReports/Reports/Orders/FastDeliveryAvailabilityHistoryReport.xlsx
+++ b/VodovozReports/Reports/Orders/FastDeliveryAvailabilityHistoryReport.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">Время реакции в часах : минутах</t>
   </si>
   <si>
-    <t xml:space="preserve">{{index+1}}</t>
+    <t xml:space="preserve">{{item.Id}}</t>
   </si>
   <si>
     <t xml:space="preserve">{{item.VerificationDateString}}</t>
@@ -265,8 +265,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/VodovozReports/Reports/Orders/FastDeliveryAvailabilityHistoryReport.xlsx
+++ b/VodovozReports/Reports/Orders/FastDeliveryAvailabilityHistoryReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm77\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD65A24A-4F84-4FE7-B0DB-B23AD4AE2CB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C2D5B-A5FF-4788-93CD-3901E3C3F115}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Rows">Лист1!$A$4:$M$5</definedName>
+    <definedName name="Rows">Лист1!$A$4:$N$5</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Журнал доступности услуги "Доставка за час" </t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>{{item.AddressString}}</t>
+  </si>
+  <si>
+    <t>Ассор-тимент не в запасе</t>
+  </si>
+  <si>
+    <t>{{item.IsNomenclatureNotInStockSubqueryString}}</t>
   </si>
 </sst>
 </file>
@@ -204,34 +210,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,122 +564,129 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="78.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="3" customWidth="1"/>
-    <col min="14" max="1024" width="10.6640625" style="3"/>
+    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="52.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="78.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="2" customWidth="1"/>
+    <col min="15" max="1024" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:14" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="N3" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="N4" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
